--- a/Database Model.xlsx
+++ b/Database Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="83">
   <si>
     <t>Table[Item]</t>
   </si>
@@ -250,6 +250,21 @@
   </si>
   <si>
     <t>Array[TransactionC]</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>itemcode</t>
+  </si>
+  <si>
+    <t>itamename</t>
+  </si>
+  <si>
+    <t>itemdescription</t>
+  </si>
+  <si>
+    <t>itemorigin</t>
   </si>
 </sst>
 </file>
@@ -781,32 +796,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="45.42578125" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1"/>
-    <col min="12" max="12" width="44.5703125" customWidth="1"/>
-    <col min="13" max="16" width="16.85546875" customWidth="1"/>
-    <col min="17" max="17" width="27.5703125" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="45.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" customWidth="1"/>
+    <col min="10" max="10" width="44.5703125" customWidth="1"/>
+    <col min="11" max="14" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -814,517 +827,532 @@
         <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="K2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="16" t="s">
+      <c r="O2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="M3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="O3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+      <c r="P3" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="16" t="s">
+      <c r="L4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="19" t="s">
+      <c r="N4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="R4" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+      <c r="P4" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="F5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="M5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="N5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="O5" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="P5" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="F6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="K6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="16" t="s">
+      <c r="L6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="19" t="s">
+      <c r="N6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="P6" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="D7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="K7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="L7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="M7" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="N7" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="F9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="I10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="10" t="s">
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="I11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="J11" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="E12" s="13" t="s">
+    <row r="12" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+    <row r="13" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B31" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1334,12 +1362,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
